--- a/data/2.HORTA Electric Demand OFF.xlsx
+++ b/data/2.HORTA Electric Demand OFF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NDSU\PhD Work\Research\IME Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/NDSU/PhD Work/Research/IME Research/AI-Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792B0695-D47B-4025-98A2-62441CB9B3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB140DE-D324-174E-8B63-16A63D1E615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
   </bookViews>
   <sheets>
     <sheet name="2.HORTA Electric Demand OFF" sheetId="4" r:id="rId1"/>
@@ -440,20 +440,20 @@
   <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="4" width="22.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.77734375" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.21875" style="2"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>19</v>
       </c>
@@ -487,7 +487,7 @@
         <v>2.3103235795693702</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>38</v>
       </c>
@@ -504,7 +504,7 @@
         <v>3.6240695757858101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10</v>
       </c>
@@ -521,7 +521,7 @@
         <v>6.7820218049297498</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -538,7 +538,7 @@
         <v>9.6183140926149697</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>19</v>
       </c>
@@ -555,7 +555,7 @@
         <v>15.960639998564799</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>51</v>
       </c>
@@ -572,7 +572,7 @@
         <v>25.568833611632201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -589,7 +589,7 @@
         <v>28.651524916369699</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -606,7 +606,7 @@
         <v>46.225220107253797</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -623,7 +623,7 @@
         <v>46.916304087442697</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -640,7 +640,7 @@
         <v>54.309355386150301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>32</v>
       </c>
@@ -657,7 +657,7 @@
         <v>55.611902117857497</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -674,7 +674,7 @@
         <v>148.95124028833499</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -691,7 +691,7 @@
         <v>159.74247746239999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>40</v>
       </c>
@@ -708,7 +708,7 @@
         <v>168.407816273604</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>59</v>
       </c>
@@ -725,7 +725,7 @@
         <v>178.11592459069499</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -742,7 +742,7 @@
         <v>183.438457316268</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -759,7 +759,7 @@
         <v>189.53592540636501</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -776,7 +776,7 @@
         <v>195.91382775068399</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -793,7 +793,7 @@
         <v>199.25873453498599</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -810,7 +810,7 @@
         <v>204.34683068640899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -827,7 +827,7 @@
         <v>205.55524955142599</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -844,7 +844,7 @@
         <v>206.524728746721</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>9</v>
       </c>
@@ -861,7 +861,7 @@
         <v>207.61744252787901</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44</v>
       </c>
@@ -878,7 +878,7 @@
         <v>226.95662904776501</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>13</v>
       </c>
@@ -895,7 +895,7 @@
         <v>232.419207801581</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>17</v>
       </c>
@@ -912,7 +912,7 @@
         <v>235.769493946761</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>15</v>
       </c>
@@ -929,7 +929,7 @@
         <v>262.73843004338801</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>18</v>
       </c>
@@ -946,7 +946,7 @@
         <v>267.47423781684699</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -963,7 +963,7 @@
         <v>273.413171928461</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>58</v>
       </c>
@@ -980,7 +980,7 @@
         <v>282.82040074392597</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>58</v>
       </c>
@@ -997,7 +997,7 @@
         <v>301.617252718717</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>4</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>302.27288891952401</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>308.16373595605398</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>6</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>308.85549523767099</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>328.98612308234499</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>353.12689372631201</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>15</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>435.52298377731</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>456.91911048300801</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>6</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>459.94337441010299</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>459.94337441010401</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>57</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>460.86926996666602</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>495.34373803498403</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>21</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>508.77915787290402</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>531.39977725716801</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>28</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>555.13964794471099</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>59</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>594.399292220098</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>21</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>638.61788320023095</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>640.09711263104305</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>63</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>644.56113906374298</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>657.68240607459597</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>714.72817425109099</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>19</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>721.15006099507696</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>722.82976810212597</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>10</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>744.29709657615695</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>763.37070068440698</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>11</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>795.88782404065</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>841.39906866599495</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>16</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>859.41198813890696</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>33</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>910.55994697596998</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>33</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>920.017735856272</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>5</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>946.14763184219703</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>33</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>957.28910052267304</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>11</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>960.44151170397004</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>5</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1014.52276664636</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>20</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1085.7039956219</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>1088.69603998771</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>7</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>1094.30746507923</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>11</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>1100.13696594163</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>28</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>1118.7027401876401</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>39</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1119.7587220248899</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>10</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1253.7467698688799</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>7</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>1340.76859589487</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>11</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>1482.9506816496801</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>27</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>1604.8891078854499</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>32</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>1680.3665564651001</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>11</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>1734.28308142128</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>54</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1749.63133491908</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>53</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>1848.57488374223</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>2490.3608309939</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>68</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>3223.9711390247198</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>70</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>15.43</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>55</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1.72</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>11</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>21</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>115</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>222.36217407804301</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>114</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>222.08227036640201</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>110</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>205.40896732540401</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>119</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>205.40896732540401</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>128</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>205.40896732540401</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>125</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>205.40896732540401</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>137</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>205.40896732540401</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>140</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>205.40896732540401</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>124</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>154.94148779664101</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>190</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>154.42025812574599</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>124</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>153.84270231573399</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>204</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>112.753591459079</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>147</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>111.37786316579199</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>181</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>110.697538739058</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>135</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>110.1324016186</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>147</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>109.201878708462</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>157</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>90.617479891159107</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>157</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>89.938075664396393</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>183</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>79.760926400382999</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>200</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>79.420258125746003</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>195</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>64.269945672007907</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>208</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>64.269945672007907</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>183</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>57.3255012275635</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>187</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>51.868739375083202</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>149</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>50.219846206868397</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>82</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>49.943767332648697</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>45.015585819482098</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>156</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>40.024186318698497</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>173</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>37.753591459079303</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>188</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>37.753591459079303</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>100</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>34.948300805434698</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>105</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>33.6783961251585</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>87</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>27.721545110426401</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>106</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>23.6111111111111</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>113</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>23.6111111111111</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>160</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>21.9778655088985</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>175</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>21.616584392911101</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>160</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>21.412867180170601</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>77</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>20.419450238619799</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>80</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>20.419450238619799</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>88</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>20.1768774369508</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>191</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>17.2222222222222</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>112</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>16.677380491502699</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>158</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>16.6666666666667</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>97</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>15.8333333333333</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>103</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>15.8333333333333</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>108</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>15.8333333333333</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>116</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>15.8333333333333</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>125</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>15.8333333333333</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>199</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>14.115147916003901</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>83</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>13.5200844074777</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>170</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>171</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>196</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>186</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>198</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>105</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>11.3371896943236</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>203</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>6.6499913761845697</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>203</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>6.59291788734678</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>212</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>6.2984648190869104</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>121</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>3.3489191528154598</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>129</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>3.3489191528154598</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>141</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>3.3489191528154598</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>139</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>139</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>1.1111111111111101</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>130</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>1.3733030694067601</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>1.3888888888888899</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>164</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1.94444444444444</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>211</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>2.03486851424642</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>164</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2.7777777777777799</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>197</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>3.9130752075873598</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>117</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>4.1666666666666696</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>152</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>4.7222222222222197</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>139</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>6.1111111111111098</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>127</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>8.05555555555555</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>197</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>8.3333333333333304</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>211</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>8.3333333333333304</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>212</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>8.3333333333333304</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>202</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>10.368201847579799</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>155</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>11.1111111111111</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>127</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>12.2222222222222</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>171</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>186</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>12.246408540920701</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>95</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>80</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>13.347633883013801</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>84</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>13.347633883013801</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>80</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>13.410059487286301</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>78</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>81</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>85</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>13.8888888888889</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>166</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>122</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>17.0010156336558</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>79</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>19.858327539158001</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>83</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>92</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>89</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>96</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>94</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>102</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>99</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>20.1009003408269</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>117</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>20.2777777777778</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>76</v>
       </c>
@@ -3625,11 +3625,14 @@
       <c r="C187" s="1">
         <v>78</v>
       </c>
+      <c r="D187" s="2">
+        <v>2</v>
+      </c>
       <c r="E187" s="7">
         <v>20.8333333333333</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>79</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>20.8333333333333</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>205</v>
       </c>
@@ -3663,7 +3666,7 @@
         <v>21.5720457895642</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>192</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>21.774148296158099</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>205</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>21.8186868995049</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>82</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>22.2222222222222</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>93</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>24.4444444444444</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>104</v>
       </c>
@@ -3748,7 +3751,7 @@
         <v>24.4444444444444</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>109</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>24.4444444444444</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>131</v>
       </c>
@@ -3782,7 +3785,7 @@
         <v>24.4444444444444</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>88</v>
       </c>
@@ -3799,7 +3802,7 @@
         <v>24.4444444444444</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="6">
         <v>98</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>24.4444444444444</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>200</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>27.551518750662702</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>189</v>
       </c>
@@ -3850,7 +3853,7 @@
         <v>27.590424069802001</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>87</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>27.721545110426401</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>156</v>
       </c>
@@ -3884,7 +3887,7 @@
         <v>27.7777777777778</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>133</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>28.352755261430499</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>133</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>28.5761033635318</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -3935,7 +3938,7 @@
         <v>33.3333333333333</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>131</v>
       </c>
@@ -3952,7 +3955,7 @@
         <v>33.6783961251585</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>161</v>
       </c>
@@ -3969,7 +3972,7 @@
         <v>40.8333333333333</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>111</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>41.6666666666667</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>188</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>41.6666666666667</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>199</v>
       </c>
@@ -4020,7 +4023,7 @@
         <v>41.6666666666667</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>160</v>
       </c>
@@ -4037,7 +4040,7 @@
         <v>50.202678324234803</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>160</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>50.303783621534699</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>174</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>52.7992341895037</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>176</v>
       </c>
@@ -4088,7 +4091,7 @@
         <v>54.536341274065101</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>142</v>
       </c>
@@ -4105,7 +4108,7 @@
         <v>58.122840569602999</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>91</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>62.726078583212498</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>165</v>
       </c>
@@ -4139,7 +4142,7 @@
         <v>86.456362480629906</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>180</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>86.456362480629906</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>194</v>
       </c>
@@ -4173,7 +4176,7 @@
         <v>86.456362480629906</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>207</v>
       </c>
@@ -4190,7 +4193,7 @@
         <v>86.456362480629906</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>206</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>86.456362480629906</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>214</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>86.456362480629906</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>155</v>
       </c>
@@ -4241,7 +4244,7 @@
         <v>92.946387406757395</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>155</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>93.105672602107106</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>166</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>95.697538739057606</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>124</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>110.447340255654</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>181</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>110.697538739058</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>133</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>132.27861539779201</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>184</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>138.03520863147</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>149</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>150.72630815263801</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>177</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>150.72630815263801</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>193</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>150.72630815263801</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="6">
         <v>162</v>
       </c>
@@ -4411,7 +4414,7 @@
         <v>150.72630815263801</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>153</v>
       </c>
@@ -4428,7 +4431,7 @@
         <v>151.329837786642</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>146</v>
       </c>
@@ -4445,7 +4448,7 @@
         <v>151.329837786642</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>125</v>
       </c>
@@ -4462,7 +4465,7 @@
         <v>151.493587665403</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>134</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>182.15390121968801</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>145</v>
       </c>
@@ -4496,7 +4499,7 @@
         <v>182.15390121968801</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>154</v>
       </c>
@@ -4513,7 +4516,7 @@
         <v>182.15390121968801</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>132</v>
       </c>
@@ -4530,7 +4533,7 @@
         <v>185.56748338252001</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>144</v>
       </c>
@@ -4547,7 +4550,7 @@
         <v>185.56748338252001</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>142</v>
       </c>
@@ -4564,7 +4567,7 @@
         <v>189.20747402275501</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>168</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>197.163171119976</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>114</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>222.08227036640201</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>107</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>222.08227036640201</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>148</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>223.03136923685699</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>159</v>
       </c>
@@ -4649,7 +4652,7 @@
         <v>223.03136923685699</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="6">
         <v>118</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>239.03547711904099</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>124</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>239.69803590352399</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>136</v>
       </c>
@@ -4700,7 +4703,7 @@
         <v>239.69803590352399</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>144</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>247.33031459235801</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="6">
         <v>115</v>
       </c>

--- a/data/2.HORTA Electric Demand OFF.xlsx
+++ b/data/2.HORTA Electric Demand OFF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/NDSU/PhD Work/Research/IME Research/AI-Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB140DE-D324-174E-8B63-16A63D1E615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E961C3-E255-514D-B3FA-2A13DED66753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
+    <workbookView xWindow="500" yWindow="2740" windowWidth="28800" windowHeight="16280" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
   </bookViews>
   <sheets>
     <sheet name="2.HORTA Electric Demand OFF" sheetId="4" r:id="rId1"/>
@@ -33,13 +33,13 @@
     <t>From_Layer</t>
   </si>
   <si>
-    <t>To_Node</t>
-  </si>
-  <si>
     <t>To_Layer</t>
   </si>
   <si>
     <t>Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To_Node </t>
   </si>
 </sst>
 </file>
@@ -62,13 +62,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,25 +102,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -437,1912 +435,1910 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2B7973-AD57-49D5-BB59-0A967678690B}">
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+      <selection activeCell="E268" sqref="E268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="7">
-        <v>2.3103235795693702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="7">
-        <v>3.6240695757858101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="7">
-        <v>6.7820218049297498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>9.6183140926149697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>15.960639998564799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>25.568833611632201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>50</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="7">
-        <v>28.651524916369699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>218</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
-        <v>46.225220107253797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>220</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="7">
-        <v>46.916304087442697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="7">
-        <v>54.309355386150301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>55.611902117857497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>2</v>
+      <c r="A13" s="4">
+        <v>217</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>218</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="7">
-        <v>148.95124028833499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>6</v>
+      <c r="A14" s="4">
+        <v>219</v>
       </c>
       <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>220</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>159.74247746239999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="7">
-        <v>168.407816273604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>59</v>
+      <c r="A16" s="4">
+        <v>222</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1">
-        <v>55</v>
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>221</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>178.11592459069499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
-        <v>183.438457316268</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>189.53592540636501</v>
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1.1111111111111101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>195.91382775068399</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1.3733030694067601</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>199.25873453498599</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.3888888888888899</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>204.34683068640899</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1.94444444444444</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>211</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>205.55524955142599</v>
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2.03486851424642</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
-        <v>206.524728746721</v>
+      <c r="E23" s="6">
+        <v>2.3103235795693702</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>9</v>
+        <v>164</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>207.61744252787901</v>
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2.7777777777777799</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>226.95662904776501</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3.3489191528154598</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>232.419207801581</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>3.3489191528154598</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>235.769493946761</v>
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3.3489191528154598</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="7">
-        <v>262.73843004338801</v>
+      <c r="E28" s="6">
+        <v>3.6240695757858101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>267.47423781684699</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>3.9130752075873598</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>273.413171928461</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4.1666666666666696</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>58</v>
+        <v>152</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="7">
-        <v>282.82040074392597</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>4.7222222222222197</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="1">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>301.617252718717</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>6.1111111111111098</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>4</v>
+        <v>203</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>302.27288891952401</v>
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>6.2984648190869104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>42</v>
+        <v>189</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>308.16373595605398</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="6">
+        <v>6.59291788734678</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>189</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>308.85549523767099</v>
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>6.6499913761845697</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="7">
-        <v>328.98612308234499</v>
+      <c r="E36" s="6">
+        <v>6.7820218049297498</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>353.12689372631201</v>
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>8.05555555555555</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="1">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>435.52298377731</v>
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <v>456.91911048300801</v>
+        <v>2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>6</v>
+        <v>212</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="1">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>459.94337441010299</v>
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="7">
-        <v>459.94337441010401</v>
+      <c r="E41" s="6">
+        <v>9.6183140926149697</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42" s="7">
-        <v>460.86926996666602</v>
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>10.368201847579799</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7">
-        <v>495.34373803498403</v>
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>11.1111111111111</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" s="7">
-        <v>508.77915787290402</v>
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>11.3371896943236</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>531.39977725716801</v>
+        <v>2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>12.2222222222222</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
-        <v>555.13964794471099</v>
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="1">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <v>594.399292220098</v>
+        <v>2</v>
+      </c>
+      <c r="E47" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="1">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>638.61788320023095</v>
+        <v>2</v>
+      </c>
+      <c r="E48" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
-        <v>640.09711263104305</v>
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="1">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" s="7">
-        <v>644.56113906374298</v>
+        <v>2</v>
+      </c>
+      <c r="E50" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>186</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="1">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7">
-        <v>657.68240607459597</v>
+        <v>2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="7">
-        <v>714.72817425109099</v>
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>12.246408540920701</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="7">
-        <v>721.15006099507696</v>
+        <v>2</v>
+      </c>
+      <c r="E53" s="6">
+        <v>12.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7">
-        <v>722.82976810212597</v>
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>13.347633883013801</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" s="7">
-        <v>744.29709657615695</v>
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>13.347633883013801</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" s="7">
-        <v>763.37070068440698</v>
+        <v>2</v>
+      </c>
+      <c r="E56" s="6">
+        <v>13.410059487286301</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="7">
-        <v>795.88782404065</v>
+        <v>2</v>
+      </c>
+      <c r="E57" s="6">
+        <v>13.5200844074777</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="1">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" s="7">
-        <v>841.39906866599495</v>
+        <v>2</v>
+      </c>
+      <c r="E58" s="6">
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="1">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7">
-        <v>859.41198813890696</v>
+        <v>2</v>
+      </c>
+      <c r="E59" s="6">
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="1">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" s="7">
-        <v>910.55994697596998</v>
+        <v>2</v>
+      </c>
+      <c r="E60" s="6">
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" s="7">
-        <v>920.017735856272</v>
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>14.115147916003901</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
-        <v>33</v>
+        <v>182</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" s="7">
-        <v>946.14763184219703</v>
+        <v>2</v>
+      </c>
+      <c r="E62" s="6">
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" s="7">
-        <v>957.28910052267304</v>
+        <v>2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="7">
-        <v>960.44151170397004</v>
+        <v>2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="1">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" s="7">
-        <v>1014.52276664636</v>
+        <v>2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C66" s="1">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1085.7039956219</v>
+        <v>2</v>
+      </c>
+      <c r="E66" s="6">
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="1">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" s="7">
-        <v>1088.69603998771</v>
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>15.8333333333333</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" s="7">
-        <v>1094.30746507923</v>
+      <c r="E68" s="6">
+        <v>15.960639998564799</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="1">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" s="7">
-        <v>1100.13696594163</v>
+        <v>2</v>
+      </c>
+      <c r="E69" s="6">
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="1">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" s="7">
-        <v>1118.7027401876401</v>
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>16.677380491502699</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="1">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" s="7">
-        <v>1119.7587220248899</v>
+        <v>2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>17.0010156336558</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="1">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" s="7">
-        <v>1253.7467698688799</v>
+        <v>2</v>
+      </c>
+      <c r="E72" s="6">
+        <v>17.2222222222222</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="1">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73" s="7">
-        <v>1340.76859589487</v>
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <v>19.858327539158001</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="1">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="7">
-        <v>1482.9506816496801</v>
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" s="7">
-        <v>1604.8891078854499</v>
+        <v>2</v>
+      </c>
+      <c r="E75" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" s="1">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76" s="7">
-        <v>1680.3665564651001</v>
+        <v>2</v>
+      </c>
+      <c r="E76" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77" s="7">
-        <v>1734.28308142128</v>
+        <v>2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78" s="7">
-        <v>1749.63133491908</v>
+        <v>2</v>
+      </c>
+      <c r="E78" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="1">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1848.57488374223</v>
+        <v>2</v>
+      </c>
+      <c r="E79" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="1">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80" s="7">
-        <v>2490.3608309939</v>
+        <v>2</v>
+      </c>
+      <c r="E80" s="6">
+        <v>20.1009003408269</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="1">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81" s="7">
-        <v>3223.9711390247198</v>
+        <v>2</v>
+      </c>
+      <c r="E81" s="6">
+        <v>20.1768774369508</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="5">
-        <v>70</v>
+      <c r="A82" s="1">
+        <v>117</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="5">
-        <v>192</v>
+        <v>2</v>
+      </c>
+      <c r="C82" s="1">
+        <v>127</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
-      <c r="E82" s="8">
-        <v>15.43</v>
+      <c r="E82" s="6">
+        <v>20.2777777777778</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>55</v>
+      <c r="A83" s="1">
+        <v>79</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="C83" s="1">
+        <v>77</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83" s="8">
-        <v>1.72</v>
+      <c r="E83" s="6">
+        <v>20.419450238619799</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="5">
-        <v>11</v>
+      <c r="A84" s="1">
+        <v>77</v>
       </c>
       <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84" s="5">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="C84" s="1">
+        <v>80</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
-      <c r="E84" s="8">
-        <v>1.8</v>
+      <c r="E84" s="6">
+        <v>20.419450238619799</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="5">
-        <v>21</v>
+      <c r="A85" s="1">
+        <v>79</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" s="5">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="C85" s="1">
+        <v>76</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="8">
-        <v>4.93</v>
+      <c r="E85" s="6">
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" s="1">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
-      <c r="E86" s="7">
-        <v>222.36217407804301</v>
+      <c r="E86" s="6">
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
       <c r="C87" s="1">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
-      <c r="E87" s="7">
-        <v>222.08227036640201</v>
+      <c r="E87" s="6">
+        <v>21.412867180170601</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="B88">
         <v>2</v>
       </c>
       <c r="C88" s="1">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
-      <c r="E88" s="7">
-        <v>205.40896732540401</v>
+      <c r="E88" s="6">
+        <v>21.5720457895642</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>119</v>
+        <v>192</v>
       </c>
       <c r="B89">
         <v>2</v>
       </c>
       <c r="C89" s="1">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" s="7">
-        <v>205.40896732540401</v>
+      <c r="E89" s="6">
+        <v>21.616584392911101</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
       <c r="C90" s="1">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" s="7">
-        <v>205.40896732540401</v>
+      <c r="E90" s="6">
+        <v>21.774148296158099</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="B91">
         <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
-      <c r="E91" s="7">
-        <v>205.40896732540401</v>
+      <c r="E91" s="6">
+        <v>21.8186868995049</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
       <c r="C92" s="1">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" s="7">
-        <v>205.40896732540401</v>
+      <c r="E92" s="6">
+        <v>21.9778655088985</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93" s="1">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" s="7">
-        <v>205.40896732540401</v>
+      <c r="E93" s="6">
+        <v>22.2222222222222</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
       <c r="C94" s="1">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" s="7">
-        <v>154.94148779664101</v>
+      <c r="E94" s="6">
+        <v>23.6111111111111</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
       <c r="C95" s="1">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
-      <c r="E95" s="7">
-        <v>154.42025812574599</v>
+      <c r="E95" s="6">
+        <v>23.6111111111111</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
       <c r="C96" s="1">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
-      <c r="E96" s="7">
-        <v>153.84270231573399</v>
+      <c r="E96" s="6">
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" s="1">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="E97" s="7">
-        <v>112.753591459079</v>
+      <c r="E97" s="6">
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>147</v>
+      <c r="A98" s="4">
+        <v>98</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-      <c r="C98" s="1">
-        <v>135</v>
+      <c r="C98" s="4">
+        <v>104</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98" s="7">
-        <v>111.37786316579199</v>
+      <c r="E98" s="6">
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" s="1">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" s="7">
-        <v>110.697538739058</v>
+      <c r="E99" s="6">
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
-      <c r="E100" s="7">
-        <v>110.1324016186</v>
+      <c r="E100" s="6">
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
       <c r="C101" s="1">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
-      <c r="E101" s="7">
-        <v>109.201878708462</v>
+      <c r="E101" s="6">
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" s="7">
-        <v>90.617479891159107</v>
+        <v>1</v>
+      </c>
+      <c r="E102" s="6">
+        <v>25.568833611632201</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
       <c r="C103" s="1">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
-      <c r="E103" s="7">
-        <v>89.938075664396393</v>
+      <c r="E103" s="6">
+        <v>27.551518750662702</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B104">
         <v>2</v>
       </c>
       <c r="C104" s="1">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" s="7">
-        <v>79.760926400382999</v>
+      <c r="E104" s="6">
+        <v>27.590424069802001</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>200</v>
+        <v>82</v>
       </c>
       <c r="B105">
         <v>2</v>
       </c>
       <c r="C105" s="1">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
-      <c r="E105" s="7">
-        <v>79.420258125746003</v>
+      <c r="E105" s="6">
+        <v>27.721545110426401</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
-      <c r="E106" s="7">
-        <v>64.269945672007907</v>
+      <c r="E106" s="6">
+        <v>27.721545110426401</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
       <c r="C107" s="1">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="D107">
         <v>2</v>
       </c>
-      <c r="E107" s="7">
-        <v>64.269945672007907</v>
+      <c r="E107" s="6">
+        <v>27.7777777777778</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108" s="1">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
-      <c r="E108" s="7">
-        <v>57.3255012275635</v>
+      <c r="E108" s="6">
+        <v>28.352755261430499</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
       <c r="C109" s="1">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D109">
         <v>2</v>
       </c>
-      <c r="E109" s="7">
-        <v>51.868739375083202</v>
+      <c r="E109" s="6">
+        <v>28.5761033635318</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110" s="1">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" s="7">
-        <v>50.219846206868397</v>
+        <v>1</v>
+      </c>
+      <c r="E110" s="6">
+        <v>28.651524916369699</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
       <c r="C111" s="1">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
-      <c r="E111" s="7">
-        <v>49.943767332648697</v>
+      <c r="E111" s="6">
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -2353,47 +2349,47 @@
       <c r="D112">
         <v>2</v>
       </c>
-      <c r="E112" s="7">
-        <v>45.015585819482098</v>
+      <c r="E112" s="6">
+        <v>33.6783961251585</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B113">
         <v>2</v>
       </c>
       <c r="C113" s="1">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
-      <c r="E113" s="7">
-        <v>40.024186318698497</v>
+      <c r="E113" s="6">
+        <v>33.6783961251585</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="B114">
         <v>2</v>
       </c>
       <c r="C114" s="1">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
-      <c r="E114" s="7">
-        <v>37.753591459079303</v>
+      <c r="E114" s="6">
+        <v>34.948300805434698</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2404,2342 +2400,2682 @@
       <c r="D115">
         <v>2</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="6">
         <v>37.753591459079303</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" s="1">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
-      <c r="E116" s="7">
-        <v>34.948300805434698</v>
+      <c r="E116" s="6">
+        <v>37.753591459079303</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117" s="1">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" s="7">
-        <v>33.6783961251585</v>
+      <c r="E117" s="6">
+        <v>40.024186318698497</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="B118">
         <v>2</v>
       </c>
       <c r="C118" s="1">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
-      <c r="E118" s="7">
-        <v>27.721545110426401</v>
+      <c r="E118" s="6">
+        <v>40.8333333333333</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
-      <c r="E119" s="7">
-        <v>23.6111111111111</v>
+      <c r="E119" s="6">
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" s="1">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
-      <c r="E120" s="7">
-        <v>23.6111111111111</v>
+      <c r="E120" s="6">
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
-      <c r="E121" s="7">
-        <v>21.9778655088985</v>
+      <c r="E121" s="6">
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" s="1">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
-      <c r="E122" s="7">
-        <v>21.616584392911101</v>
+      <c r="E122" s="6">
+        <v>45.015585819482098</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" s="1">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" s="7">
-        <v>21.412867180170601</v>
+        <v>1</v>
+      </c>
+      <c r="E123" s="6">
+        <v>46.225220107253797</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="B124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C124" s="1">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124" s="7">
-        <v>20.419450238619799</v>
+        <v>1</v>
+      </c>
+      <c r="E124" s="6">
+        <v>46.916304087442697</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
-      <c r="E125" s="7">
-        <v>20.419450238619799</v>
+      <c r="E125" s="6">
+        <v>49.943767332648697</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
       <c r="C126" s="1">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
-      <c r="E126" s="7">
-        <v>20.1768774369508</v>
+      <c r="E126" s="6">
+        <v>50.202678324234803</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" s="1">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
-      <c r="E127" s="7">
-        <v>17.2222222222222</v>
+      <c r="E127" s="6">
+        <v>50.219846206868397</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" s="1">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
-      <c r="E128" s="7">
-        <v>16.677380491502699</v>
+      <c r="E128" s="6">
+        <v>50.303783621534699</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" s="1">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
-      <c r="E129" s="7">
-        <v>16.6666666666667</v>
+      <c r="E129" s="6">
+        <v>51.868739375083202</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>97</v>
+        <v>174</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" s="1">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="D130">
         <v>2</v>
       </c>
-      <c r="E130" s="7">
-        <v>15.8333333333333</v>
+      <c r="E130" s="6">
+        <v>52.7992341895037</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C131" s="1">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131" s="7">
-        <v>15.8333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="E131" s="6">
+        <v>54.309355386150301</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" s="1">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
-      <c r="E132" s="7">
-        <v>15.8333333333333</v>
+      <c r="E132" s="6">
+        <v>54.536341274065101</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C133" s="1">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133" s="7">
-        <v>15.8333333333333</v>
+        <v>1</v>
+      </c>
+      <c r="E133" s="6">
+        <v>55.611902117857497</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
       <c r="C134" s="1">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="D134">
         <v>2</v>
       </c>
-      <c r="E134" s="7">
-        <v>15.8333333333333</v>
+      <c r="E134" s="6">
+        <v>57.3255012275635</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" s="1">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
-      <c r="E135" s="7">
-        <v>14.115147916003901</v>
+      <c r="E135" s="6">
+        <v>58.122840569602999</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D136">
         <v>2</v>
       </c>
-      <c r="E136" s="7">
-        <v>13.5200844074777</v>
+      <c r="E136" s="6">
+        <v>62.726078583212498</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137" s="1">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
-      <c r="E137" s="7">
-        <v>12.246408540920701</v>
+      <c r="E137" s="6">
+        <v>64.269945672007907</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" s="1">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="D138">
         <v>2</v>
       </c>
-      <c r="E138" s="7">
-        <v>12.246408540920701</v>
+      <c r="E138" s="6">
+        <v>64.269945672007907</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139" s="1">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D139">
         <v>2</v>
       </c>
-      <c r="E139" s="7">
-        <v>12.246408540920701</v>
+      <c r="E139" s="6">
+        <v>79.420258125746003</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
       <c r="C140" s="1">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
-      <c r="E140" s="7">
-        <v>12.246408540920701</v>
+      <c r="E140" s="6">
+        <v>79.760926400382999</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
       <c r="C141" s="1">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="E141" s="7">
-        <v>12.246408540920701</v>
+      <c r="E141" s="6">
+        <v>86.456362480629906</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142" s="1">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="D142">
         <v>2</v>
       </c>
-      <c r="E142" s="7">
-        <v>11.3371896943236</v>
+      <c r="E142" s="6">
+        <v>86.456362480629906</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" s="1">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
-      <c r="E143" s="7">
-        <v>6.6499913761845697</v>
+      <c r="E143" s="6">
+        <v>86.456362480629906</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144" s="1">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
-      <c r="E144" s="7">
-        <v>6.59291788734678</v>
+      <c r="E144" s="6">
+        <v>86.456362480629906</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B145">
         <v>2</v>
       </c>
       <c r="C145" s="1">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
-      <c r="E145" s="7">
-        <v>6.2984648190869104</v>
+      <c r="E145" s="6">
+        <v>86.456362480629906</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="B146">
         <v>2</v>
       </c>
       <c r="C146" s="1">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="D146">
         <v>2</v>
       </c>
-      <c r="E146" s="7">
-        <v>3.3489191528154598</v>
+      <c r="E146" s="6">
+        <v>86.456362480629906</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>2</v>
       </c>
       <c r="C147" s="1">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="D147">
         <v>2</v>
       </c>
-      <c r="E147" s="7">
-        <v>3.3489191528154598</v>
+      <c r="E147" s="6">
+        <v>89.938075664396393</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>2</v>
       </c>
       <c r="C148" s="1">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
-      <c r="E148" s="7">
-        <v>3.3489191528154598</v>
+      <c r="E148" s="6">
+        <v>90.617479891159107</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" s="1">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
-      <c r="E149" s="7">
-        <v>0.83333333333333304</v>
+      <c r="E149" s="6">
+        <v>92.946387406757395</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
-      <c r="E150" s="7">
-        <v>1.1111111111111101</v>
+      <c r="E150" s="6">
+        <v>93.105672602107106</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" s="1">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
-      <c r="E151" s="7">
-        <v>1.3733030694067601</v>
+      <c r="E151" s="6">
+        <v>95.697538739057606</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B152">
         <v>2</v>
       </c>
       <c r="C152" s="1">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D152">
         <v>2</v>
       </c>
-      <c r="E152" s="7">
-        <v>1.3888888888888899</v>
+      <c r="E152" s="6">
+        <v>109.201878708462</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
       <c r="C153" s="1">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
-      <c r="E153" s="7">
-        <v>1.94444444444444</v>
+      <c r="E153" s="6">
+        <v>110.1324016186</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
       <c r="C154" s="1">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
-      <c r="E154" s="7">
-        <v>2.03486851424642</v>
+      <c r="E154" s="6">
+        <v>110.447340255654</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="B155">
         <v>2</v>
       </c>
       <c r="C155" s="1">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D155">
         <v>2</v>
       </c>
-      <c r="E155" s="7">
-        <v>2.7777777777777799</v>
+      <c r="E155" s="6">
+        <v>110.697538739058</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156" s="1">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
-      <c r="E156" s="7">
-        <v>3.9130752075873598</v>
+      <c r="E156" s="6">
+        <v>110.697538739058</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157" s="1">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
-      <c r="E157" s="7">
-        <v>4.1666666666666696</v>
+      <c r="E157" s="6">
+        <v>111.37786316579199</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158" s="1">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="D158">
         <v>2</v>
       </c>
-      <c r="E158" s="7">
-        <v>4.7222222222222197</v>
+      <c r="E158" s="6">
+        <v>112.753591459079</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" s="1">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D159">
         <v>2</v>
       </c>
-      <c r="E159" s="7">
-        <v>6.1111111111111098</v>
+      <c r="E159" s="6">
+        <v>132.27861539779201</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
       <c r="C160" s="1">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
-      <c r="E160" s="7">
-        <v>8.05555555555555</v>
+      <c r="E160" s="6">
+        <v>138.03520863147</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>197</v>
+        <v>2</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="D161">
-        <v>2</v>
-      </c>
-      <c r="E161" s="7">
-        <v>8.3333333333333304</v>
+        <v>1</v>
+      </c>
+      <c r="E161" s="6">
+        <v>148.95124028833499</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="B162">
         <v>2</v>
       </c>
       <c r="C162" s="1">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
-      <c r="E162" s="7">
-        <v>8.3333333333333304</v>
+      <c r="E162" s="6">
+        <v>150.72630815263801</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
-        <v>212</v>
+      <c r="A163" s="4">
+        <v>162</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
-      <c r="C163" s="1">
-        <v>216</v>
+      <c r="C163" s="4">
+        <v>177</v>
       </c>
       <c r="D163">
         <v>2</v>
       </c>
-      <c r="E163" s="7">
-        <v>8.3333333333333304</v>
+      <c r="E163" s="6">
+        <v>150.72630815263801</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164" s="1">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
-      <c r="E164" s="7">
-        <v>10.368201847579799</v>
+      <c r="E164" s="6">
+        <v>150.72630815263801</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165" s="1">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
-      <c r="E165" s="7">
-        <v>11.1111111111111</v>
+      <c r="E165" s="6">
+        <v>150.72630815263801</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="B166">
         <v>2</v>
       </c>
       <c r="C166" s="1">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D166">
         <v>2</v>
       </c>
-      <c r="E166" s="7">
-        <v>12.2222222222222</v>
+      <c r="E166" s="6">
+        <v>151.329837786642</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B167">
         <v>2</v>
       </c>
       <c r="C167" s="1">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
-      <c r="E167" s="7">
-        <v>12.246408540920701</v>
+      <c r="E167" s="6">
+        <v>151.329837786642</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" s="1">
-        <v>197</v>
+        <v>124</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
-      <c r="E168" s="7">
-        <v>12.246408540920701</v>
+      <c r="E168" s="6">
+        <v>151.493587665403</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="C169" s="1">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D169">
         <v>2</v>
       </c>
-      <c r="E169" s="7">
-        <v>12.5</v>
+      <c r="E169" s="6">
+        <v>153.84270231573399</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170" s="1">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="D170">
         <v>2</v>
       </c>
-      <c r="E170" s="7">
-        <v>13.347633883013801</v>
+      <c r="E170" s="6">
+        <v>154.42025812574599</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B171">
         <v>2</v>
       </c>
       <c r="C171" s="1">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
-      <c r="E171" s="7">
-        <v>13.347633883013801</v>
+      <c r="E171" s="6">
+        <v>154.94148779664101</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" s="1">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>2</v>
-      </c>
-      <c r="E172" s="7">
-        <v>13.410059487286301</v>
+        <v>1</v>
+      </c>
+      <c r="E172" s="6">
+        <v>159.74247746239999</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" s="1">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="D173">
-        <v>2</v>
-      </c>
-      <c r="E173" s="7">
-        <v>13.8888888888889</v>
+        <v>1</v>
+      </c>
+      <c r="E173" s="6">
+        <v>168.407816273604</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" s="1">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174" s="7">
-        <v>13.8888888888889</v>
+        <v>1</v>
+      </c>
+      <c r="E174" s="6">
+        <v>178.11592459069499</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="B175">
         <v>2</v>
       </c>
       <c r="C175" s="1">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="D175">
         <v>2</v>
       </c>
-      <c r="E175" s="7">
-        <v>13.8888888888889</v>
+      <c r="E175" s="6">
+        <v>182.15390121968801</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
       <c r="C176" s="1">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D176">
         <v>2</v>
       </c>
-      <c r="E176" s="7">
-        <v>15</v>
+      <c r="E176" s="6">
+        <v>182.15390121968801</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
       <c r="C177" s="1">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
-      <c r="E177" s="7">
-        <v>17.0010156336558</v>
+      <c r="E177" s="6">
+        <v>182.15390121968801</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C178" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178" s="7">
-        <v>19.858327539158001</v>
+        <v>1</v>
+      </c>
+      <c r="E178" s="6">
+        <v>183.438457316268</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="C179" s="1">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D179">
         <v>2</v>
       </c>
-      <c r="E179" s="7">
-        <v>20.1009003408269</v>
+      <c r="E179" s="6">
+        <v>185.56748338252001</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180" s="1">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
-      <c r="E180" s="7">
-        <v>20.1009003408269</v>
+      <c r="E180" s="6">
+        <v>185.56748338252001</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>89</v>
+        <v>142</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
       <c r="C181" s="1">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
-      <c r="E181" s="7">
-        <v>20.1009003408269</v>
+      <c r="E181" s="6">
+        <v>189.20747402275501</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="B182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C182" s="1">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182" s="7">
-        <v>20.1009003408269</v>
+        <v>1</v>
+      </c>
+      <c r="E182" s="6">
+        <v>189.53592540636501</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" s="1">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183" s="7">
-        <v>20.1009003408269</v>
+        <v>1</v>
+      </c>
+      <c r="E183" s="6">
+        <v>195.91382775068399</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" s="1">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="D184">
         <v>2</v>
       </c>
-      <c r="E184" s="7">
-        <v>20.1009003408269</v>
+      <c r="E184" s="6">
+        <v>197.163171119976</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C185" s="1">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185" s="7">
-        <v>20.1009003408269</v>
+        <v>1</v>
+      </c>
+      <c r="E185" s="6">
+        <v>199.25873453498599</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C186" s="1">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186" s="7">
-        <v>20.2777777777778</v>
+        <v>1</v>
+      </c>
+      <c r="E186" s="6">
+        <v>204.34683068640899</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" s="1">
-        <v>78</v>
-      </c>
-      <c r="D187" s="2">
-        <v>2</v>
-      </c>
-      <c r="E187" s="7">
-        <v>20.8333333333333</v>
+        <v>110</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" s="6">
+        <v>205.40896732540401</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" s="1">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
-      <c r="E188" s="7">
-        <v>20.8333333333333</v>
+      <c r="E188" s="6">
+        <v>205.40896732540401</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="C189" s="1">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
-      <c r="E189" s="7">
-        <v>21.5720457895642</v>
+      <c r="E189" s="6">
+        <v>205.40896732540401</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" s="1">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="D190">
         <v>2</v>
       </c>
-      <c r="E190" s="7">
-        <v>21.774148296158099</v>
+      <c r="E190" s="6">
+        <v>205.40896732540401</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
       <c r="C191" s="1">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="D191">
         <v>2</v>
       </c>
-      <c r="E191" s="7">
-        <v>21.8186868995049</v>
+      <c r="E191" s="6">
+        <v>205.40896732540401</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
       <c r="C192" s="1">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
-      <c r="E192" s="7">
-        <v>22.2222222222222</v>
+      <c r="E192" s="6">
+        <v>205.40896732540401</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" s="1">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193" s="7">
-        <v>24.4444444444444</v>
+        <v>1</v>
+      </c>
+      <c r="E193" s="6">
+        <v>205.55524955142599</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C194" s="1">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194" s="7">
-        <v>24.4444444444444</v>
+        <v>1</v>
+      </c>
+      <c r="E194" s="6">
+        <v>206.524728746721</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" s="1">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="E195" s="7">
-        <v>24.4444444444444</v>
+        <v>1</v>
+      </c>
+      <c r="E195" s="6">
+        <v>207.61744252787901</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
       <c r="C196" s="1">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
-      <c r="E196" s="7">
-        <v>24.4444444444444</v>
+      <c r="E196" s="6">
+        <v>222.08227036640201</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="B197">
         <v>2</v>
       </c>
       <c r="C197" s="1">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D197">
         <v>2</v>
       </c>
-      <c r="E197" s="7">
-        <v>24.4444444444444</v>
+      <c r="E197" s="6">
+        <v>222.08227036640201</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="6">
-        <v>98</v>
+      <c r="A198" s="1">
+        <v>107</v>
       </c>
       <c r="B198">
         <v>2</v>
       </c>
-      <c r="C198" s="6">
-        <v>104</v>
+      <c r="C198" s="1">
+        <v>115</v>
       </c>
       <c r="D198">
         <v>2</v>
       </c>
-      <c r="E198" s="7">
-        <v>24.4444444444444</v>
+      <c r="E198" s="6">
+        <v>222.08227036640201</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>200</v>
+        <v>123</v>
       </c>
       <c r="B199">
         <v>2</v>
       </c>
       <c r="C199" s="1">
-        <v>199</v>
+        <v>115</v>
       </c>
       <c r="D199">
         <v>2</v>
       </c>
-      <c r="E199" s="7">
-        <v>27.551518750662702</v>
+      <c r="E199" s="6">
+        <v>222.36217407804301</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="B200">
         <v>2</v>
       </c>
       <c r="C200" s="1">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="D200">
         <v>2</v>
       </c>
-      <c r="E200" s="7">
-        <v>27.590424069802001</v>
+      <c r="E200" s="6">
+        <v>223.03136923685699</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201" s="1">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="D201">
         <v>2</v>
       </c>
-      <c r="E201" s="7">
-        <v>27.721545110426401</v>
+      <c r="E201" s="6">
+        <v>223.03136923685699</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" s="1">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202" s="7">
-        <v>27.7777777777778</v>
+        <v>1</v>
+      </c>
+      <c r="E202" s="6">
+        <v>226.95662904776501</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="B203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C203" s="1">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="D203">
-        <v>2</v>
-      </c>
-      <c r="E203" s="7">
-        <v>28.352755261430499</v>
+        <v>1</v>
+      </c>
+      <c r="E203" s="6">
+        <v>232.419207801581</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="B204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C204" s="1">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204" s="7">
-        <v>28.5761033635318</v>
+        <v>1</v>
+      </c>
+      <c r="E204" s="6">
+        <v>235.769493946761</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
-        <v>204</v>
+      <c r="A205" s="4">
+        <v>118</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
-      <c r="C205" s="1">
-        <v>213</v>
+      <c r="C205" s="4">
+        <v>125</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
-      <c r="E205" s="7">
-        <v>33.3333333333333</v>
+      <c r="E205" s="6">
+        <v>239.03547711904099</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B206">
         <v>2</v>
       </c>
       <c r="C206" s="1">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D206">
         <v>2</v>
       </c>
-      <c r="E206" s="7">
-        <v>33.6783961251585</v>
+      <c r="E206" s="6">
+        <v>239.69803590352399</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
       <c r="C207" s="1">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="D207">
         <v>2</v>
       </c>
-      <c r="E207" s="7">
-        <v>40.8333333333333</v>
+      <c r="E207" s="6">
+        <v>239.69803590352399</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B208">
         <v>2</v>
       </c>
       <c r="C208" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D208">
         <v>2</v>
       </c>
-      <c r="E208" s="7">
-        <v>41.6666666666667</v>
+      <c r="E208" s="6">
+        <v>247.33031459235801</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="B209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C209" s="1">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="D209">
-        <v>2</v>
-      </c>
-      <c r="E209" s="7">
-        <v>41.6666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="E209" s="6">
+        <v>262.73843004338801</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C210" s="1">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210" s="7">
-        <v>41.6666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="E210" s="6">
+        <v>267.47423781684699</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="B211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C211" s="1">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="D211">
-        <v>2</v>
-      </c>
-      <c r="E211" s="7">
-        <v>50.202678324234803</v>
+        <v>1</v>
+      </c>
+      <c r="E211" s="6">
+        <v>273.413171928461</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="B212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C212" s="1">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212" s="7">
-        <v>50.303783621534699</v>
+        <v>1</v>
+      </c>
+      <c r="E212" s="6">
+        <v>282.82040074392597</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C213" s="1">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="D213">
-        <v>2</v>
-      </c>
-      <c r="E213" s="7">
-        <v>52.7992341895037</v>
+        <v>1</v>
+      </c>
+      <c r="E213" s="6">
+        <v>301.617252718717</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="B214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C214" s="1">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="D214">
-        <v>2</v>
-      </c>
-      <c r="E214" s="7">
-        <v>54.536341274065101</v>
+        <v>1</v>
+      </c>
+      <c r="E214" s="6">
+        <v>302.27288891952401</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="B215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C215" s="1">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="D215">
-        <v>2</v>
-      </c>
-      <c r="E215" s="7">
-        <v>58.122840569602999</v>
+        <v>1</v>
+      </c>
+      <c r="E215" s="6">
+        <v>308.16373595605398</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" s="1">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216" s="7">
-        <v>62.726078583212498</v>
+        <v>1</v>
+      </c>
+      <c r="E216" s="6">
+        <v>308.85549523767099</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="B217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C217" s="1">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="D217">
-        <v>2</v>
-      </c>
-      <c r="E217" s="7">
-        <v>86.456362480629906</v>
+        <v>1</v>
+      </c>
+      <c r="E217" s="6">
+        <v>328.98612308234499</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C218" s="1">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="D218">
-        <v>2</v>
-      </c>
-      <c r="E218" s="7">
-        <v>86.456362480629906</v>
+        <v>1</v>
+      </c>
+      <c r="E218" s="6">
+        <v>353.12689372631201</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c r="B219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C219" s="1">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="D219">
-        <v>2</v>
-      </c>
-      <c r="E219" s="7">
-        <v>86.456362480629906</v>
+        <v>1</v>
+      </c>
+      <c r="E219" s="6">
+        <v>435.52298377731</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
-        <v>207</v>
+      <c r="A220" s="4">
+        <v>115</v>
       </c>
       <c r="B220">
         <v>2</v>
       </c>
-      <c r="C220" s="1">
-        <v>194</v>
+      <c r="C220" s="4">
+        <v>118</v>
       </c>
       <c r="D220">
         <v>2</v>
       </c>
-      <c r="E220" s="7">
-        <v>86.456362480629906</v>
+      <c r="E220" s="6">
+        <v>444.444444444444</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="D221">
-        <v>2</v>
-      </c>
-      <c r="E221" s="7">
-        <v>86.456362480629906</v>
+        <v>1</v>
+      </c>
+      <c r="E221" s="6">
+        <v>456.91911048300801</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="B222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C222" s="1">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="D222">
-        <v>2</v>
-      </c>
-      <c r="E222" s="7">
-        <v>86.456362480629906</v>
+        <v>1</v>
+      </c>
+      <c r="E222" s="6">
+        <v>459.94337441010299</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="B223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C223" s="1">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223" s="7">
-        <v>92.946387406757395</v>
+        <v>1</v>
+      </c>
+      <c r="E223" s="6">
+        <v>459.94337441010401</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" s="1">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="D224">
-        <v>2</v>
-      </c>
-      <c r="E224" s="7">
-        <v>93.105672602107106</v>
+        <v>1</v>
+      </c>
+      <c r="E224" s="6">
+        <v>460.86926996666602</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="B225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C225" s="1">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c r="D225">
-        <v>2</v>
-      </c>
-      <c r="E225" s="7">
-        <v>95.697538739057606</v>
+        <v>1</v>
+      </c>
+      <c r="E225" s="6">
+        <v>495.34373803498403</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="B226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C226" s="1">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="D226">
-        <v>2</v>
-      </c>
-      <c r="E226" s="7">
-        <v>110.447340255654</v>
+        <v>1</v>
+      </c>
+      <c r="E226" s="6">
+        <v>508.77915787290402</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="B227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C227" s="1">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="D227">
-        <v>2</v>
-      </c>
-      <c r="E227" s="7">
-        <v>110.697538739058</v>
+        <v>1</v>
+      </c>
+      <c r="E227" s="6">
+        <v>531.39977725716801</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C228" s="1">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="D228">
-        <v>2</v>
-      </c>
-      <c r="E228" s="7">
-        <v>132.27861539779201</v>
+        <v>1</v>
+      </c>
+      <c r="E228" s="6">
+        <v>555.13964794471099</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" s="1">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229" s="7">
-        <v>138.03520863147</v>
+        <v>1</v>
+      </c>
+      <c r="E229" s="6">
+        <v>594.399292220098</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" s="1">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="D230">
-        <v>2</v>
-      </c>
-      <c r="E230" s="7">
-        <v>150.72630815263801</v>
+        <v>1</v>
+      </c>
+      <c r="E230" s="6">
+        <v>638.61788320023095</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="B231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231" s="1">
-        <v>193</v>
+        <v>21</v>
       </c>
       <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="E231" s="7">
-        <v>150.72630815263801</v>
+        <v>1</v>
+      </c>
+      <c r="E231" s="6">
+        <v>640.09711263104305</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="B232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" s="1">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="D232">
-        <v>2</v>
-      </c>
-      <c r="E232" s="7">
-        <v>150.72630815263801</v>
+        <v>1</v>
+      </c>
+      <c r="E232" s="6">
+        <v>644.56113906374298</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="6">
-        <v>162</v>
+      <c r="A233" s="1">
+        <v>52</v>
       </c>
       <c r="B233">
-        <v>2</v>
-      </c>
-      <c r="C233" s="6">
-        <v>177</v>
+        <v>1</v>
+      </c>
+      <c r="C233" s="1">
+        <v>72</v>
       </c>
       <c r="D233">
-        <v>2</v>
-      </c>
-      <c r="E233" s="7">
-        <v>150.72630815263801</v>
+        <v>1</v>
+      </c>
+      <c r="E233" s="6">
+        <v>657.68240607459597</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" s="1">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="D234">
-        <v>2</v>
-      </c>
-      <c r="E234" s="7">
-        <v>151.329837786642</v>
+        <v>1</v>
+      </c>
+      <c r="E234" s="6">
+        <v>714.72817425109099</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="D235">
-        <v>2</v>
-      </c>
-      <c r="E235" s="7">
-        <v>151.329837786642</v>
+        <v>1</v>
+      </c>
+      <c r="E235" s="6">
+        <v>721.15006099507696</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="B236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C236" s="1">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>2</v>
-      </c>
-      <c r="E236" s="7">
-        <v>151.493587665403</v>
+        <v>1</v>
+      </c>
+      <c r="E236" s="6">
+        <v>722.82976810212597</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" s="1">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="D237">
-        <v>2</v>
-      </c>
-      <c r="E237" s="7">
-        <v>182.15390121968801</v>
+        <v>1</v>
+      </c>
+      <c r="E237" s="6">
+        <v>744.29709657615695</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="B238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C238" s="1">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="D238">
-        <v>2</v>
-      </c>
-      <c r="E238" s="7">
-        <v>182.15390121968801</v>
+        <v>1</v>
+      </c>
+      <c r="E238" s="6">
+        <v>763.37070068440698</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="B239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C239" s="1">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="E239" s="7">
-        <v>182.15390121968801</v>
+        <v>1</v>
+      </c>
+      <c r="E239" s="6">
+        <v>795.88782404065</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="B240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C240" s="1">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D240">
-        <v>2</v>
-      </c>
-      <c r="E240" s="7">
-        <v>185.56748338252001</v>
+        <v>1</v>
+      </c>
+      <c r="E240" s="6">
+        <v>841.39906866599495</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="B241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C241" s="1">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241" s="7">
-        <v>185.56748338252001</v>
+        <v>1</v>
+      </c>
+      <c r="E241" s="6">
+        <v>859.41198813890696</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" s="1">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="D242">
-        <v>2</v>
-      </c>
-      <c r="E242" s="7">
-        <v>189.20747402275501</v>
+        <v>1</v>
+      </c>
+      <c r="E242" s="6">
+        <v>910.55994697596998</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" s="1">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D243">
-        <v>2</v>
-      </c>
-      <c r="E243" s="7">
-        <v>197.163171119976</v>
+        <v>1</v>
+      </c>
+      <c r="E243" s="6">
+        <v>920.017735856272</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C244" s="1">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D244">
-        <v>2</v>
-      </c>
-      <c r="E244" s="7">
-        <v>222.08227036640201</v>
+        <v>1</v>
+      </c>
+      <c r="E244" s="6">
+        <v>946.14763184219703</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C245" s="1">
-        <v>115</v>
+        <v>37</v>
       </c>
       <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245" s="7">
-        <v>222.08227036640201</v>
+        <v>1</v>
+      </c>
+      <c r="E245" s="6">
+        <v>957.28910052267304</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" s="1">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246" s="7">
-        <v>223.03136923685699</v>
+        <v>1</v>
+      </c>
+      <c r="E246" s="6">
+        <v>960.44151170397004</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="B247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C247" s="1">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="D247">
-        <v>2</v>
-      </c>
-      <c r="E247" s="7">
-        <v>223.03136923685699</v>
+        <v>1</v>
+      </c>
+      <c r="E247" s="6">
+        <v>1014.52276664636</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="6">
-        <v>118</v>
+      <c r="A248" s="1">
+        <v>20</v>
       </c>
       <c r="B248">
-        <v>2</v>
-      </c>
-      <c r="C248" s="6">
-        <v>125</v>
+        <v>1</v>
+      </c>
+      <c r="C248" s="1">
+        <v>28</v>
       </c>
       <c r="D248">
-        <v>2</v>
-      </c>
-      <c r="E248" s="7">
-        <v>239.03547711904099</v>
+        <v>1</v>
+      </c>
+      <c r="E248" s="6">
+        <v>1085.7039956219</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C249" s="1">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249" s="7">
-        <v>239.69803590352399</v>
+        <v>1</v>
+      </c>
+      <c r="E249" s="6">
+        <v>1088.69603998771</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="B250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C250" s="1">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250" s="7">
-        <v>239.69803590352399</v>
+        <v>1</v>
+      </c>
+      <c r="E250" s="6">
+        <v>1094.30746507923</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="B251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C251" s="1">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="D251">
-        <v>2</v>
-      </c>
-      <c r="E251" s="7">
-        <v>247.33031459235801</v>
+        <v>1</v>
+      </c>
+      <c r="E251" s="6">
+        <v>1100.13696594163</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="6">
-        <v>115</v>
+      <c r="A252" s="1">
+        <v>28</v>
       </c>
       <c r="B252">
-        <v>2</v>
-      </c>
-      <c r="C252" s="6">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="C252" s="1">
+        <v>62</v>
       </c>
       <c r="D252">
-        <v>2</v>
-      </c>
-      <c r="E252" s="7">
-        <v>444.444444444444</v>
+        <v>1</v>
+      </c>
+      <c r="E252" s="6">
+        <v>1118.7027401876401</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>39</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" s="1">
+        <v>17</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253" s="6">
+        <v>1119.7587220248899</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>10</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" s="1">
+        <v>68</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254" s="6">
+        <v>1253.7467698688799</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>7</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" s="1">
+        <v>11</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" s="6">
+        <v>1340.76859589487</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>11</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" s="1">
+        <v>37</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" s="6">
+        <v>1482.9506816496801</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>27</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" s="1">
+        <v>11</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257" s="6">
+        <v>1604.8891078854499</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>32</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" s="1">
+        <v>21</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" s="6">
+        <v>1680.3665564651001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>11</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" s="1">
+        <v>61</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259" s="6">
+        <v>1734.28308142128</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>54</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" s="1">
+        <v>11</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260" s="6">
+        <v>1749.63133491908</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>53</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" s="1">
+        <v>11</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+      <c r="E261" s="6">
+        <v>1848.57488374223</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>5</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" s="1">
+        <v>32</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+      <c r="E262" s="6">
+        <v>2490.3608309939</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>68</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" s="1">
+        <v>69</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+      <c r="E263" s="6">
+        <v>3223.9711390247198</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>18</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" s="1">
+        <v>22</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+      <c r="E264" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>42</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" s="1">
+        <v>22</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+      <c r="E265" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>26</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>64</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+      <c r="E266" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>172</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267" s="1">
+        <v>186</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>158</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268" s="1">
+        <v>219</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>70</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" s="3">
+        <v>192</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269" s="9">
+        <v>15.43</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>55</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" s="2">
+        <v>205</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270" s="9">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>11</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" s="3">
+        <v>98</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>21</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" s="3">
+        <v>162</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272" s="9">
+        <v>4.93</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E252">
-    <sortCondition ref="B1:B252"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E272">
+    <sortCondition ref="E1:E272"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
